--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntf5-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntf5-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Ntf5</t>
+  </si>
+  <si>
+    <t>Ntrk1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ntf5</t>
-  </si>
-  <si>
-    <t>Ntrk1</t>
   </si>
 </sst>
 </file>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,40 +543,40 @@
         <v>1.077133</v>
       </c>
       <c r="I2">
-        <v>0.408865244861821</v>
+        <v>0.480597973884934</v>
       </c>
       <c r="J2">
-        <v>0.408865244861821</v>
+        <v>0.480597973884934</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05507833333333333</v>
+        <v>0.05351466666666666</v>
       </c>
       <c r="N2">
-        <v>0.165235</v>
+        <v>0.160544</v>
       </c>
       <c r="O2">
-        <v>0.7874745626200381</v>
+        <v>0.4186447970585551</v>
       </c>
       <c r="P2">
-        <v>0.7874745626200382</v>
+        <v>0.4186447970585551</v>
       </c>
       <c r="Q2">
-        <v>0.01977556347277777</v>
+        <v>0.01921413781688889</v>
       </c>
       <c r="R2">
-        <v>0.177980071255</v>
+        <v>0.172927240352</v>
       </c>
       <c r="S2">
-        <v>0.3219709798680973</v>
+        <v>0.201199841243811</v>
       </c>
       <c r="T2">
-        <v>0.3219709798680973</v>
+        <v>0.201199841243811</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,102 +605,102 @@
         <v>1.077133</v>
       </c>
       <c r="I3">
-        <v>0.408865244861821</v>
+        <v>0.480597973884934</v>
       </c>
       <c r="J3">
-        <v>0.408865244861821</v>
+        <v>0.480597973884934</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.01486466666666667</v>
+        <v>0.05507833333333334</v>
       </c>
       <c r="N3">
-        <v>0.044594</v>
+        <v>0.165235</v>
       </c>
       <c r="O3">
-        <v>0.2125254373799618</v>
+        <v>0.4308773485273219</v>
       </c>
       <c r="P3">
-        <v>0.2125254373799618</v>
+        <v>0.4308773485273218</v>
       </c>
       <c r="Q3">
-        <v>0.005337074333555555</v>
+        <v>0.01977556347277778</v>
       </c>
       <c r="R3">
-        <v>0.048033669002</v>
+        <v>0.177980071255</v>
       </c>
       <c r="S3">
-        <v>0.08689426499372367</v>
+        <v>0.2070787806951434</v>
       </c>
       <c r="T3">
-        <v>0.08689426499372367</v>
+        <v>0.2070787806951434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.3590443333333333</v>
+      </c>
+      <c r="H4">
+        <v>1.077133</v>
+      </c>
+      <c r="I4">
+        <v>0.480597973884934</v>
+      </c>
+      <c r="J4">
+        <v>0.480597973884934</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.2470073333333334</v>
-      </c>
-      <c r="H4">
-        <v>0.7410220000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.2812820157566395</v>
-      </c>
-      <c r="J4">
-        <v>0.2812820157566395</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.05507833333333333</v>
+        <v>0.01923533333333333</v>
       </c>
       <c r="N4">
-        <v>0.165235</v>
+        <v>0.057706</v>
       </c>
       <c r="O4">
-        <v>0.7874745626200381</v>
+        <v>0.1504778544141231</v>
       </c>
       <c r="P4">
-        <v>0.7874745626200382</v>
+        <v>0.1504778544141231</v>
       </c>
       <c r="Q4">
-        <v>0.01360475224111111</v>
+        <v>0.006906337433111111</v>
       </c>
       <c r="R4">
-        <v>0.12244277017</v>
+        <v>0.06215703689799999</v>
       </c>
       <c r="S4">
-        <v>0.2215024323308423</v>
+        <v>0.07231935194597963</v>
       </c>
       <c r="T4">
-        <v>0.2215024323308424</v>
+        <v>0.07231935194597963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2470073333333334</v>
+        <v>0.388034</v>
       </c>
       <c r="H5">
-        <v>0.7410220000000001</v>
+        <v>1.164102</v>
       </c>
       <c r="I5">
-        <v>0.2812820157566395</v>
+        <v>0.519402026115066</v>
       </c>
       <c r="J5">
-        <v>0.2812820157566395</v>
+        <v>0.5194020261150661</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,39 +741,39 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01486466666666667</v>
+        <v>0.05351466666666666</v>
       </c>
       <c r="N5">
-        <v>0.044594</v>
+        <v>0.160544</v>
       </c>
       <c r="O5">
-        <v>0.2125254373799618</v>
+        <v>0.4186447970585551</v>
       </c>
       <c r="P5">
-        <v>0.2125254373799618</v>
+        <v>0.4186447970585551</v>
       </c>
       <c r="Q5">
-        <v>0.003671681674222223</v>
+        <v>0.02076551016533333</v>
       </c>
       <c r="R5">
-        <v>0.033045135068</v>
+        <v>0.186889591488</v>
       </c>
       <c r="S5">
-        <v>0.0597795834257971</v>
+        <v>0.2174449558147442</v>
       </c>
       <c r="T5">
-        <v>0.05977958342579711</v>
+        <v>0.2174449558147442</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -782,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2720966666666667</v>
+        <v>0.388034</v>
       </c>
       <c r="H6">
-        <v>0.81629</v>
+        <v>1.164102</v>
       </c>
       <c r="I6">
-        <v>0.3098527393815396</v>
+        <v>0.519402026115066</v>
       </c>
       <c r="J6">
-        <v>0.3098527393815396</v>
+        <v>0.5194020261150661</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,42 +803,42 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.05507833333333333</v>
+        <v>0.05507833333333334</v>
       </c>
       <c r="N6">
         <v>0.165235</v>
       </c>
       <c r="O6">
-        <v>0.7874745626200381</v>
+        <v>0.4308773485273219</v>
       </c>
       <c r="P6">
-        <v>0.7874745626200382</v>
+        <v>0.4308773485273218</v>
       </c>
       <c r="Q6">
-        <v>0.01498663090555555</v>
+        <v>0.02137226599666667</v>
       </c>
       <c r="R6">
-        <v>0.13487967815</v>
+        <v>0.19235039397</v>
       </c>
       <c r="S6">
-        <v>0.2440011504210985</v>
+        <v>0.2237985678321785</v>
       </c>
       <c r="T6">
-        <v>0.2440011504210986</v>
+        <v>0.2237985678321785</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2720966666666667</v>
+        <v>0.388034</v>
       </c>
       <c r="H7">
-        <v>0.81629</v>
+        <v>1.164102</v>
       </c>
       <c r="I7">
-        <v>0.3098527393815396</v>
+        <v>0.519402026115066</v>
       </c>
       <c r="J7">
-        <v>0.3098527393815396</v>
+        <v>0.5194020261150661</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.01486466666666667</v>
+        <v>0.01923533333333333</v>
       </c>
       <c r="N7">
-        <v>0.044594</v>
+        <v>0.057706</v>
       </c>
       <c r="O7">
-        <v>0.2125254373799618</v>
+        <v>0.1504778544141231</v>
       </c>
       <c r="P7">
-        <v>0.2125254373799618</v>
+        <v>0.1504778544141231</v>
       </c>
       <c r="Q7">
-        <v>0.004044626251111111</v>
+        <v>0.007463963334666666</v>
       </c>
       <c r="R7">
-        <v>0.03640163626</v>
+        <v>0.067175670012</v>
       </c>
       <c r="S7">
-        <v>0.06585158896044101</v>
+        <v>0.07815850246814349</v>
       </c>
       <c r="T7">
-        <v>0.06585158896044101</v>
+        <v>0.07815850246814349</v>
       </c>
     </row>
   </sheetData>
